--- a/气象/WheatA小麦芽县级逐年降雪量(卫星反演).xlsx
+++ b/气象/WheatA小麦芽县级逐年降雪量(卫星反演).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25222F7-70C8-410F-A404-D012D5F217EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5208E5-CF42-4A9D-905D-E495F40AED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{3DDE2517-75A5-4668-B7C2-29638D1098B5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3DDE2517-75A5-4668-B7C2-29638D1098B5}"/>
   </bookViews>
   <sheets>
     <sheet name="禾木" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>经度(lon)</t>
   </si>
@@ -393,15 +393,52 @@
     <t>降雪量数据源： WheatA小麦芽0.25×0.25经纬度精度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>县级精度(0.25×0.25经纬度网格精度) 降雪量-sf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10公里精度(0.1×0.1经纬度网格精度) *降雪量-Snowf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*降雪量(mm)</t>
+  </si>
+  <si>
+    <t>这个选项不靠谱，数据肯定不是禾木的！而是阿勒泰的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">县级精度(0.25×0.25经纬度网格精度) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*降雪量-SNO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项不算太离谱，但是感觉也不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,33 +467,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -671,6 +681,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -755,105 +773,84 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,11 +1176,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93538E0D-B98B-4DC7-A837-35C0301702A3}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1192,30 +1187,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>87.5</v>
-      </c>
-      <c r="B2">
-        <v>48.75</v>
-      </c>
-      <c r="C2">
-        <v>335.58</v>
-      </c>
-      <c r="D2">
-        <v>1950</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1226,10 +1212,10 @@
         <v>48.75</v>
       </c>
       <c r="C3">
-        <v>422.05</v>
+        <v>335.58</v>
       </c>
       <c r="D3">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1240,10 +1226,10 @@
         <v>48.75</v>
       </c>
       <c r="C4">
-        <v>417.59</v>
+        <v>422.05</v>
       </c>
       <c r="D4">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1254,10 +1240,10 @@
         <v>48.75</v>
       </c>
       <c r="C5">
-        <v>345.98</v>
+        <v>417.59</v>
       </c>
       <c r="D5">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1268,10 +1254,10 @@
         <v>48.75</v>
       </c>
       <c r="C6">
-        <v>467.27</v>
+        <v>345.98</v>
       </c>
       <c r="D6">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1282,10 +1268,10 @@
         <v>48.75</v>
       </c>
       <c r="C7">
-        <v>529.74</v>
+        <v>467.27</v>
       </c>
       <c r="D7">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -1296,10 +1282,10 @@
         <v>48.75</v>
       </c>
       <c r="C8">
-        <v>502.12</v>
+        <v>529.74</v>
       </c>
       <c r="D8">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -1310,10 +1296,10 @@
         <v>48.75</v>
       </c>
       <c r="C9">
-        <v>587.85</v>
+        <v>502.12</v>
       </c>
       <c r="D9">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1324,10 +1310,10 @@
         <v>48.75</v>
       </c>
       <c r="C10">
-        <v>564.21</v>
+        <v>587.85</v>
       </c>
       <c r="D10">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -1338,10 +1324,10 @@
         <v>48.75</v>
       </c>
       <c r="C11">
-        <v>428.44</v>
+        <v>564.21</v>
       </c>
       <c r="D11">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1352,10 +1338,10 @@
         <v>48.75</v>
       </c>
       <c r="C12">
-        <v>668.53</v>
+        <v>428.44</v>
       </c>
       <c r="D12">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1366,10 +1352,10 @@
         <v>48.75</v>
       </c>
       <c r="C13">
-        <v>588.52</v>
+        <v>668.53</v>
       </c>
       <c r="D13">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1380,10 +1366,10 @@
         <v>48.75</v>
       </c>
       <c r="C14">
-        <v>365.4</v>
+        <v>588.52</v>
       </c>
       <c r="D14">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1394,10 +1380,10 @@
         <v>48.75</v>
       </c>
       <c r="C15">
-        <v>535.74</v>
+        <v>365.4</v>
       </c>
       <c r="D15">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1408,10 +1394,10 @@
         <v>48.75</v>
       </c>
       <c r="C16">
-        <v>484.74</v>
+        <v>535.74</v>
       </c>
       <c r="D16">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1422,10 +1408,10 @@
         <v>48.75</v>
       </c>
       <c r="C17">
-        <v>538.17999999999995</v>
+        <v>484.74</v>
       </c>
       <c r="D17">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1436,10 +1422,10 @@
         <v>48.75</v>
       </c>
       <c r="C18">
-        <v>633.22</v>
+        <v>538.17999999999995</v>
       </c>
       <c r="D18">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1450,10 +1436,10 @@
         <v>48.75</v>
       </c>
       <c r="C19">
-        <v>272.79000000000002</v>
+        <v>633.22</v>
       </c>
       <c r="D19">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1464,10 +1450,10 @@
         <v>48.75</v>
       </c>
       <c r="C20">
-        <v>651.27</v>
+        <v>272.79000000000002</v>
       </c>
       <c r="D20">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1478,10 +1464,10 @@
         <v>48.75</v>
       </c>
       <c r="C21">
-        <v>658.85</v>
+        <v>651.27</v>
       </c>
       <c r="D21">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1492,10 +1478,10 @@
         <v>48.75</v>
       </c>
       <c r="C22">
-        <v>549.80999999999995</v>
+        <v>658.85</v>
       </c>
       <c r="D22">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1506,10 +1492,10 @@
         <v>48.75</v>
       </c>
       <c r="C23">
-        <v>637.91</v>
+        <v>549.80999999999995</v>
       </c>
       <c r="D23">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1520,10 +1506,10 @@
         <v>48.75</v>
       </c>
       <c r="C24">
-        <v>709.62</v>
+        <v>637.91</v>
       </c>
       <c r="D24">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1534,10 +1520,10 @@
         <v>48.75</v>
       </c>
       <c r="C25">
-        <v>491.92</v>
+        <v>709.62</v>
       </c>
       <c r="D25">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1548,10 +1534,10 @@
         <v>48.75</v>
       </c>
       <c r="C26">
-        <v>468.98</v>
+        <v>491.92</v>
       </c>
       <c r="D26">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1562,10 +1548,10 @@
         <v>48.75</v>
       </c>
       <c r="C27">
-        <v>602.92999999999995</v>
+        <v>468.98</v>
       </c>
       <c r="D27">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1576,10 +1562,10 @@
         <v>48.75</v>
       </c>
       <c r="C28">
-        <v>610.63</v>
+        <v>602.92999999999995</v>
       </c>
       <c r="D28">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1590,10 +1576,10 @@
         <v>48.75</v>
       </c>
       <c r="C29">
-        <v>430.51</v>
+        <v>610.63</v>
       </c>
       <c r="D29">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1604,10 +1590,10 @@
         <v>48.75</v>
       </c>
       <c r="C30">
-        <v>505.97</v>
+        <v>430.51</v>
       </c>
       <c r="D30">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1618,10 +1604,10 @@
         <v>48.75</v>
       </c>
       <c r="C31">
-        <v>578.79999999999995</v>
+        <v>505.97</v>
       </c>
       <c r="D31">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1632,10 +1618,10 @@
         <v>48.75</v>
       </c>
       <c r="C32">
-        <v>472.19</v>
+        <v>578.79999999999995</v>
       </c>
       <c r="D32">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -1646,10 +1632,10 @@
         <v>48.75</v>
       </c>
       <c r="C33">
-        <v>389.92</v>
+        <v>472.19</v>
       </c>
       <c r="D33">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1660,10 +1646,10 @@
         <v>48.75</v>
       </c>
       <c r="C34">
-        <v>397.3</v>
+        <v>389.92</v>
       </c>
       <c r="D34">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -1674,10 +1660,10 @@
         <v>48.75</v>
       </c>
       <c r="C35">
-        <v>597.59</v>
+        <v>397.3</v>
       </c>
       <c r="D35">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -1688,10 +1674,10 @@
         <v>48.75</v>
       </c>
       <c r="C36">
-        <v>606.85</v>
+        <v>597.59</v>
       </c>
       <c r="D36">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -1702,10 +1688,10 @@
         <v>48.75</v>
       </c>
       <c r="C37">
-        <v>481.76</v>
+        <v>606.85</v>
       </c>
       <c r="D37">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -1716,10 +1702,10 @@
         <v>48.75</v>
       </c>
       <c r="C38">
-        <v>390.82</v>
+        <v>481.76</v>
       </c>
       <c r="D38">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1730,10 +1716,10 @@
         <v>48.75</v>
       </c>
       <c r="C39">
-        <v>753.1</v>
+        <v>390.82</v>
       </c>
       <c r="D39">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1744,10 +1730,10 @@
         <v>48.75</v>
       </c>
       <c r="C40">
-        <v>528.04</v>
+        <v>753.1</v>
       </c>
       <c r="D40">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1758,10 +1744,10 @@
         <v>48.75</v>
       </c>
       <c r="C41">
-        <v>543.08000000000004</v>
+        <v>528.04</v>
       </c>
       <c r="D41">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1772,10 +1758,10 @@
         <v>48.75</v>
       </c>
       <c r="C42">
-        <v>467.21</v>
+        <v>543.08000000000004</v>
       </c>
       <c r="D42">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1786,10 +1772,10 @@
         <v>48.75</v>
       </c>
       <c r="C43">
-        <v>437.17</v>
+        <v>467.21</v>
       </c>
       <c r="D43">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1800,10 +1786,10 @@
         <v>48.75</v>
       </c>
       <c r="C44">
-        <v>543.59</v>
+        <v>437.17</v>
       </c>
       <c r="D44">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -1814,10 +1800,10 @@
         <v>48.75</v>
       </c>
       <c r="C45">
-        <v>630.69000000000005</v>
+        <v>543.59</v>
       </c>
       <c r="D45">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -1828,10 +1814,10 @@
         <v>48.75</v>
       </c>
       <c r="C46">
-        <v>660.18</v>
+        <v>630.69000000000005</v>
       </c>
       <c r="D46">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -1842,10 +1828,10 @@
         <v>48.75</v>
       </c>
       <c r="C47">
-        <v>399.02</v>
+        <v>660.18</v>
       </c>
       <c r="D47">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -1856,10 +1842,10 @@
         <v>48.75</v>
       </c>
       <c r="C48">
-        <v>631.52</v>
+        <v>399.02</v>
       </c>
       <c r="D48">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -1870,10 +1856,10 @@
         <v>48.75</v>
       </c>
       <c r="C49">
-        <v>368.28</v>
+        <v>631.52</v>
       </c>
       <c r="D49">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1884,10 +1870,10 @@
         <v>48.75</v>
       </c>
       <c r="C50">
-        <v>532.11</v>
+        <v>368.28</v>
       </c>
       <c r="D50">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -1898,10 +1884,10 @@
         <v>48.75</v>
       </c>
       <c r="C51">
-        <v>538.04999999999995</v>
+        <v>532.11</v>
       </c>
       <c r="D51">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -1912,10 +1898,10 @@
         <v>48.75</v>
       </c>
       <c r="C52">
-        <v>475.96</v>
+        <v>538.04999999999995</v>
       </c>
       <c r="D52">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -1926,10 +1912,10 @@
         <v>48.75</v>
       </c>
       <c r="C53">
-        <v>461.9</v>
+        <v>475.96</v>
       </c>
       <c r="D53">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -1940,10 +1926,10 @@
         <v>48.75</v>
       </c>
       <c r="C54">
-        <v>481.95</v>
+        <v>461.9</v>
       </c>
       <c r="D54">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -1954,10 +1940,10 @@
         <v>48.75</v>
       </c>
       <c r="C55">
-        <v>430.11</v>
+        <v>481.95</v>
       </c>
       <c r="D55">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -1968,10 +1954,10 @@
         <v>48.75</v>
       </c>
       <c r="C56">
-        <v>517.37</v>
+        <v>430.11</v>
       </c>
       <c r="D56">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -1982,10 +1968,10 @@
         <v>48.75</v>
       </c>
       <c r="C57">
-        <v>481.53</v>
+        <v>517.37</v>
       </c>
       <c r="D57">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -1996,10 +1982,10 @@
         <v>48.75</v>
       </c>
       <c r="C58">
-        <v>538.08000000000004</v>
+        <v>481.53</v>
       </c>
       <c r="D58">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2010,10 +1996,10 @@
         <v>48.75</v>
       </c>
       <c r="C59">
-        <v>435.49</v>
+        <v>538.08000000000004</v>
       </c>
       <c r="D59">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2024,10 +2010,10 @@
         <v>48.75</v>
       </c>
       <c r="C60">
-        <v>443.01</v>
+        <v>435.49</v>
       </c>
       <c r="D60">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2038,10 +2024,10 @@
         <v>48.75</v>
       </c>
       <c r="C61">
-        <v>589.54999999999995</v>
+        <v>443.01</v>
       </c>
       <c r="D61">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2052,10 +2038,10 @@
         <v>48.75</v>
       </c>
       <c r="C62">
-        <v>649.73</v>
+        <v>589.54999999999995</v>
       </c>
       <c r="D62">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2066,10 +2052,10 @@
         <v>48.75</v>
       </c>
       <c r="C63">
-        <v>325.95999999999998</v>
+        <v>649.73</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2080,10 +2066,10 @@
         <v>48.75</v>
       </c>
       <c r="C64">
-        <v>422.47</v>
+        <v>325.95999999999998</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2094,10 +2080,10 @@
         <v>48.75</v>
       </c>
       <c r="C65">
-        <v>595.5</v>
+        <v>422.47</v>
       </c>
       <c r="D65">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2108,10 +2094,10 @@
         <v>48.75</v>
       </c>
       <c r="C66">
-        <v>519.61</v>
+        <v>595.5</v>
       </c>
       <c r="D66">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2122,10 +2108,10 @@
         <v>48.75</v>
       </c>
       <c r="C67">
-        <v>699.09</v>
+        <v>519.61</v>
       </c>
       <c r="D67">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -2136,10 +2122,10 @@
         <v>48.75</v>
       </c>
       <c r="C68">
-        <v>622.97</v>
+        <v>699.09</v>
       </c>
       <c r="D68">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2150,10 +2136,10 @@
         <v>48.75</v>
       </c>
       <c r="C69">
-        <v>408.38</v>
+        <v>622.97</v>
       </c>
       <c r="D69">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -2164,10 +2150,10 @@
         <v>48.75</v>
       </c>
       <c r="C70">
-        <v>686.72</v>
+        <v>408.38</v>
       </c>
       <c r="D70">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -2178,10 +2164,10 @@
         <v>48.75</v>
       </c>
       <c r="C71">
-        <v>447.29</v>
+        <v>686.72</v>
       </c>
       <c r="D71">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -2192,10 +2178,10 @@
         <v>48.75</v>
       </c>
       <c r="C72">
-        <v>347.43</v>
+        <v>447.29</v>
       </c>
       <c r="D72">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -2206,10 +2192,10 @@
         <v>48.75</v>
       </c>
       <c r="C73">
-        <v>584.51</v>
+        <v>347.43</v>
       </c>
       <c r="D73">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -2220,10 +2206,10 @@
         <v>48.75</v>
       </c>
       <c r="C74">
-        <v>427.37</v>
+        <v>584.51</v>
       </c>
       <c r="D74">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -2234,10 +2220,10 @@
         <v>48.75</v>
       </c>
       <c r="C75">
-        <v>726.21</v>
+        <v>427.37</v>
       </c>
       <c r="D75">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -2248,68 +2234,1508 @@
         <v>48.75</v>
       </c>
       <c r="C76">
+        <v>726.21</v>
+      </c>
+      <c r="D76">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>87.5</v>
+      </c>
+      <c r="B77">
+        <v>48.75</v>
+      </c>
+      <c r="C77">
         <v>610.97</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>2024</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="8">
-        <f>MIN(C2:C76)</f>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24">
+        <f>MIN(C3:C77)</f>
         <v>272.79000000000002</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="2">
         <v>1967</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="9">
-        <f>MAX(C2:C76)</f>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24">
+        <f>MAX(C3:C77)</f>
         <v>753.1</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="2">
         <v>1987</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="10">
-        <f>AVERAGE(C2:C76)</f>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24">
+        <f>AVERAGE(C3:C77)</f>
         <v>518.43706666666662</v>
       </c>
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>87.5</v>
-      </c>
-      <c r="B80">
-        <v>48.75</v>
-      </c>
-      <c r="C80">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>87.5</v>
+      </c>
+      <c r="B81">
+        <v>48.75</v>
+      </c>
+      <c r="C81">
         <v>220.14</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>87.5</v>
+      </c>
+      <c r="B86">
+        <v>48.5</v>
+      </c>
+      <c r="C86">
+        <v>224.64</v>
+      </c>
+      <c r="D86">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>87.5</v>
+      </c>
+      <c r="B87">
+        <v>48.5</v>
+      </c>
+      <c r="C87">
+        <v>171.94</v>
+      </c>
+      <c r="D87">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87.5</v>
+      </c>
+      <c r="B88">
+        <v>48.5</v>
+      </c>
+      <c r="C88">
+        <v>134.9</v>
+      </c>
+      <c r="D88">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>87.5</v>
+      </c>
+      <c r="B89">
+        <v>48.5</v>
+      </c>
+      <c r="C89">
+        <v>144.65</v>
+      </c>
+      <c r="D89">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>87.5</v>
+      </c>
+      <c r="B90">
+        <v>48.5</v>
+      </c>
+      <c r="C90">
+        <v>198.21</v>
+      </c>
+      <c r="D90">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>87.5</v>
+      </c>
+      <c r="B91">
+        <v>48.5</v>
+      </c>
+      <c r="C91">
+        <v>134.34</v>
+      </c>
+      <c r="D91">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>87.5</v>
+      </c>
+      <c r="B92">
+        <v>48.5</v>
+      </c>
+      <c r="C92">
+        <v>127.24</v>
+      </c>
+      <c r="D92">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>87.5</v>
+      </c>
+      <c r="B93">
+        <v>48.5</v>
+      </c>
+      <c r="C93">
+        <v>237.32</v>
+      </c>
+      <c r="D93">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>87.5</v>
+      </c>
+      <c r="B94">
+        <v>48.5</v>
+      </c>
+      <c r="C94">
+        <v>200.25</v>
+      </c>
+      <c r="D94">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>87.5</v>
+      </c>
+      <c r="B95">
+        <v>48.5</v>
+      </c>
+      <c r="C95">
+        <v>178.12</v>
+      </c>
+      <c r="D95">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>87.5</v>
+      </c>
+      <c r="B96">
+        <v>48.5</v>
+      </c>
+      <c r="C96">
+        <v>216.5</v>
+      </c>
+      <c r="D96">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>87.5</v>
+      </c>
+      <c r="B97">
+        <v>48.5</v>
+      </c>
+      <c r="C97">
+        <v>181.15</v>
+      </c>
+      <c r="D97">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>87.5</v>
+      </c>
+      <c r="B98">
+        <v>48.5</v>
+      </c>
+      <c r="C98">
+        <v>166.37</v>
+      </c>
+      <c r="D98">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>87.5</v>
+      </c>
+      <c r="B99">
+        <v>48.5</v>
+      </c>
+      <c r="C99">
+        <v>216.35</v>
+      </c>
+      <c r="D99">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>87.5</v>
+      </c>
+      <c r="B100">
+        <v>48.5</v>
+      </c>
+      <c r="C100">
+        <v>231.54</v>
+      </c>
+      <c r="D100">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>87.5</v>
+      </c>
+      <c r="B101">
+        <v>48.5</v>
+      </c>
+      <c r="C101">
+        <v>137.04</v>
+      </c>
+      <c r="D101">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>87.5</v>
+      </c>
+      <c r="B102">
+        <v>48.5</v>
+      </c>
+      <c r="C102">
+        <v>245.08</v>
+      </c>
+      <c r="D102">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>87.5</v>
+      </c>
+      <c r="B103">
+        <v>48.5</v>
+      </c>
+      <c r="C103">
+        <v>152.02000000000001</v>
+      </c>
+      <c r="D103">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>87.5</v>
+      </c>
+      <c r="B104">
+        <v>48.5</v>
+      </c>
+      <c r="C104">
+        <v>231.48</v>
+      </c>
+      <c r="D104">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>87.5</v>
+      </c>
+      <c r="B105">
+        <v>48.5</v>
+      </c>
+      <c r="C105">
+        <v>201.92</v>
+      </c>
+      <c r="D105">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>87.5</v>
+      </c>
+      <c r="B106">
+        <v>48.5</v>
+      </c>
+      <c r="C106">
+        <v>238.74</v>
+      </c>
+      <c r="D106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>87.5</v>
+      </c>
+      <c r="B107">
+        <v>48.5</v>
+      </c>
+      <c r="C107">
+        <v>204.34</v>
+      </c>
+      <c r="D107">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>87.5</v>
+      </c>
+      <c r="B108">
+        <v>48.5</v>
+      </c>
+      <c r="C108">
+        <v>233.96</v>
+      </c>
+      <c r="D108">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>87.5</v>
+      </c>
+      <c r="B109">
+        <v>48.5</v>
+      </c>
+      <c r="C109">
+        <v>213.59</v>
+      </c>
+      <c r="D109">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>87.5</v>
+      </c>
+      <c r="B110">
+        <v>48.5</v>
+      </c>
+      <c r="C110">
+        <v>235.25</v>
+      </c>
+      <c r="D110">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>87.5</v>
+      </c>
+      <c r="B111">
+        <v>48.5</v>
+      </c>
+      <c r="C111">
+        <v>219.92</v>
+      </c>
+      <c r="D111">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>87.5</v>
+      </c>
+      <c r="B112">
+        <v>48.5</v>
+      </c>
+      <c r="C112">
+        <v>244.54</v>
+      </c>
+      <c r="D112">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>87.5</v>
+      </c>
+      <c r="B113">
+        <v>48.5</v>
+      </c>
+      <c r="C113">
+        <v>168.34</v>
+      </c>
+      <c r="D113">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>87.5</v>
+      </c>
+      <c r="B114">
+        <v>48.5</v>
+      </c>
+      <c r="C114">
+        <v>174.62</v>
+      </c>
+      <c r="D114">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>87.5</v>
+      </c>
+      <c r="B115">
+        <v>48.5</v>
+      </c>
+      <c r="C115">
+        <v>256.5</v>
+      </c>
+      <c r="D115">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>87.5</v>
+      </c>
+      <c r="B116">
+        <v>48.5</v>
+      </c>
+      <c r="C116">
+        <v>351.67</v>
+      </c>
+      <c r="D116">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>87.5</v>
+      </c>
+      <c r="B117">
+        <v>48.5</v>
+      </c>
+      <c r="C117">
+        <v>187.13</v>
+      </c>
+      <c r="D117">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>87.5</v>
+      </c>
+      <c r="B118">
+        <v>48.5</v>
+      </c>
+      <c r="C118">
+        <v>193.61</v>
+      </c>
+      <c r="D118">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>87.5</v>
+      </c>
+      <c r="B119">
+        <v>48.5</v>
+      </c>
+      <c r="C119">
+        <v>214.26</v>
+      </c>
+      <c r="D119">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>87.5</v>
+      </c>
+      <c r="B120">
+        <v>48.5</v>
+      </c>
+      <c r="C120">
+        <v>188.66</v>
+      </c>
+      <c r="D120">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>87.5</v>
+      </c>
+      <c r="B121">
+        <v>48.5</v>
+      </c>
+      <c r="C121">
+        <v>295.27999999999997</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>87.5</v>
+      </c>
+      <c r="B122">
+        <v>48.5</v>
+      </c>
+      <c r="C122">
+        <v>265.92</v>
+      </c>
+      <c r="D122">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>87.5</v>
+      </c>
+      <c r="B123">
+        <v>48.5</v>
+      </c>
+      <c r="C123">
+        <v>171.51</v>
+      </c>
+      <c r="D123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>87.5</v>
+      </c>
+      <c r="B124">
+        <v>48.5</v>
+      </c>
+      <c r="C124">
+        <v>277.83999999999997</v>
+      </c>
+      <c r="D124">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>87.5</v>
+      </c>
+      <c r="B125">
+        <v>48.5</v>
+      </c>
+      <c r="C125">
+        <v>199.12</v>
+      </c>
+      <c r="D125">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>87.5</v>
+      </c>
+      <c r="B126">
+        <v>48.5</v>
+      </c>
+      <c r="C126">
+        <v>163.81</v>
+      </c>
+      <c r="D126">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>87.5</v>
+      </c>
+      <c r="B127">
+        <v>48.5</v>
+      </c>
+      <c r="C127">
+        <v>268.06</v>
+      </c>
+      <c r="D127">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>87.5</v>
+      </c>
+      <c r="B128">
+        <v>48.5</v>
+      </c>
+      <c r="C128">
+        <v>210.94</v>
+      </c>
+      <c r="D128">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>87.5</v>
+      </c>
+      <c r="B129">
+        <v>48.5</v>
+      </c>
+      <c r="C129">
+        <v>361.92</v>
+      </c>
+      <c r="D129">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>87.5</v>
+      </c>
+      <c r="B130">
+        <v>48.5</v>
+      </c>
+      <c r="C130">
+        <v>298.68</v>
+      </c>
+      <c r="D130">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B131" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="24">
+        <f>MIN(C86:C130)</f>
+        <v>127.24</v>
+      </c>
+      <c r="D131" s="25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B132" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="24">
+        <f>MAX(C86:C130)</f>
+        <v>361.92</v>
+      </c>
+      <c r="D132" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B133" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="24">
+        <f>AVERAGE(C86:C130)</f>
+        <v>212.65044444444445</v>
+      </c>
+      <c r="D133" s="25"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>87.5</v>
+      </c>
+      <c r="B134">
+        <v>48.5</v>
+      </c>
+      <c r="C134">
+        <v>101.39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B141" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C141" s="22">
+        <v>65.03</v>
+      </c>
+      <c r="D141" s="22">
+        <v>1982</v>
+      </c>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B142" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C142" s="22">
+        <v>60.34</v>
+      </c>
+      <c r="D142" s="22">
+        <v>1983</v>
+      </c>
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B143" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C143" s="22">
+        <v>100.56</v>
+      </c>
+      <c r="D143" s="22">
+        <v>1984</v>
+      </c>
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A144" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B144" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C144" s="22">
+        <v>83.24</v>
+      </c>
+      <c r="D144" s="22">
+        <v>1985</v>
+      </c>
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B145" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C145" s="22">
+        <v>79.12</v>
+      </c>
+      <c r="D145" s="22">
+        <v>1986</v>
+      </c>
+      <c r="E145" s="22"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B146" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C146" s="22">
+        <v>125.13</v>
+      </c>
+      <c r="D146" s="22">
+        <v>1987</v>
+      </c>
+      <c r="E146" s="22"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B147" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C147" s="22">
+        <v>82.44</v>
+      </c>
+      <c r="D147" s="22">
+        <v>1988</v>
+      </c>
+      <c r="E147" s="22"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B148" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C148" s="22">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="D148" s="22">
+        <v>1989</v>
+      </c>
+      <c r="E148" s="22"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B149" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C149" s="22">
+        <v>96.27</v>
+      </c>
+      <c r="D149" s="22">
+        <v>1990</v>
+      </c>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B150" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C150" s="22">
+        <v>89.74</v>
+      </c>
+      <c r="D150" s="22">
+        <v>1991</v>
+      </c>
+      <c r="E150" s="22"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B151" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C151" s="22">
+        <v>76.81</v>
+      </c>
+      <c r="D151" s="22">
+        <v>1992</v>
+      </c>
+      <c r="E151" s="22"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B152" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C152" s="22">
+        <v>78.48</v>
+      </c>
+      <c r="D152" s="22">
+        <v>1993</v>
+      </c>
+      <c r="E152" s="22"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B153" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C153" s="22">
+        <v>84.19</v>
+      </c>
+      <c r="D153" s="22">
+        <v>1994</v>
+      </c>
+      <c r="E153" s="22"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B154" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C154" s="22">
+        <v>54.67</v>
+      </c>
+      <c r="D154" s="22">
+        <v>1995</v>
+      </c>
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B155" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C155" s="22">
+        <v>94.96</v>
+      </c>
+      <c r="D155" s="22">
+        <v>1996</v>
+      </c>
+      <c r="E155" s="22"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B156" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C156" s="22">
+        <v>72.8</v>
+      </c>
+      <c r="D156" s="22">
+        <v>1997</v>
+      </c>
+      <c r="E156" s="22"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B157" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C157" s="22">
+        <v>83.19</v>
+      </c>
+      <c r="D157" s="22">
+        <v>1998</v>
+      </c>
+      <c r="E157" s="22"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B158" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C158" s="22">
+        <v>53.25</v>
+      </c>
+      <c r="D158" s="22">
+        <v>1999</v>
+      </c>
+      <c r="E158" s="22"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B159" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C159" s="22">
+        <v>90.5</v>
+      </c>
+      <c r="D159" s="22">
+        <v>2000</v>
+      </c>
+      <c r="E159" s="22"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B160" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C160" s="22">
+        <v>89.24</v>
+      </c>
+      <c r="D160" s="22">
+        <v>2001</v>
+      </c>
+      <c r="E160" s="22"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B161" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C161" s="22">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="D161" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E161" s="22"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A162" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B162" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C162" s="22">
+        <v>82.95</v>
+      </c>
+      <c r="D162" s="22">
+        <v>2003</v>
+      </c>
+      <c r="E162" s="22"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A163" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B163" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C163" s="22">
+        <v>73.05</v>
+      </c>
+      <c r="D163" s="22">
+        <v>2004</v>
+      </c>
+      <c r="E163" s="22"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A164" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B164" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C164" s="22">
+        <v>59.22</v>
+      </c>
+      <c r="D164" s="22">
+        <v>2005</v>
+      </c>
+      <c r="E164" s="22"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A165" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B165" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C165" s="22">
+        <v>101.16</v>
+      </c>
+      <c r="D165" s="22">
+        <v>2006</v>
+      </c>
+      <c r="E165" s="22"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A166" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B166" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C166" s="22">
+        <v>79.33</v>
+      </c>
+      <c r="D166" s="22">
+        <v>2007</v>
+      </c>
+      <c r="E166" s="22"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A167" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B167" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C167" s="22">
+        <v>58.36</v>
+      </c>
+      <c r="D167" s="22">
+        <v>2008</v>
+      </c>
+      <c r="E167" s="22"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A168" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B168" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C168" s="22">
+        <v>75.84</v>
+      </c>
+      <c r="D168" s="22">
+        <v>2009</v>
+      </c>
+      <c r="E168" s="22"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A169" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B169" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C169" s="22">
+        <v>98.94</v>
+      </c>
+      <c r="D169" s="22">
+        <v>2010</v>
+      </c>
+      <c r="E169" s="22"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A170" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B170" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C170" s="22">
+        <v>73.73</v>
+      </c>
+      <c r="D170" s="22">
+        <v>2011</v>
+      </c>
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A171" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B171" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C171" s="22">
+        <v>78.98</v>
+      </c>
+      <c r="D171" s="22">
+        <v>2012</v>
+      </c>
+      <c r="E171" s="22"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A172" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B172" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C172" s="22">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="D172" s="22">
+        <v>2013</v>
+      </c>
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A173" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B173" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C173" s="22">
+        <v>78.77</v>
+      </c>
+      <c r="D173" s="22">
+        <v>2014</v>
+      </c>
+      <c r="E173" s="22"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A174" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B174" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C174" s="22">
+        <v>99.63</v>
+      </c>
+      <c r="D174" s="22">
+        <v>2015</v>
+      </c>
+      <c r="E174" s="22"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A175" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B175" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C175" s="22">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="D175" s="22">
+        <v>2016</v>
+      </c>
+      <c r="E175" s="22"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A176" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B176" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C176" s="22">
+        <v>74.62</v>
+      </c>
+      <c r="D176" s="22">
+        <v>2017</v>
+      </c>
+      <c r="E176" s="22"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A177" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B177" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C177" s="22">
+        <v>87.07</v>
+      </c>
+      <c r="D177" s="22">
+        <v>2018</v>
+      </c>
+      <c r="E177" s="22"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A178" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B178" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C178" s="22">
+        <v>73.8</v>
+      </c>
+      <c r="D178" s="22">
+        <v>2019</v>
+      </c>
+      <c r="E178" s="22"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A179" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B179" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C179" s="22">
+        <v>54.98</v>
+      </c>
+      <c r="D179" s="22">
+        <v>2020</v>
+      </c>
+      <c r="E179" s="22"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A180" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B180" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C180" s="22">
+        <v>93.44</v>
+      </c>
+      <c r="D180" s="22">
+        <v>2021</v>
+      </c>
+      <c r="E180" s="22"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A181" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B181" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C181" s="22">
+        <v>62.36</v>
+      </c>
+      <c r="D181" s="22">
+        <v>2022</v>
+      </c>
+      <c r="E181" s="22"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A182" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B182" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C182" s="22">
+        <v>103.01</v>
+      </c>
+      <c r="D182" s="22">
+        <v>2023</v>
+      </c>
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A183" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B183" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C183" s="22">
+        <v>88.62</v>
+      </c>
+      <c r="D183" s="22">
+        <v>2024</v>
+      </c>
+      <c r="E183" s="22"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A184" s="22"/>
+      <c r="B184" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="25">
+        <f>MIN(C141:C183)</f>
+        <v>53.25</v>
+      </c>
+      <c r="D184" s="25">
+        <v>1999</v>
+      </c>
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A185" s="22"/>
+      <c r="B185" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="25">
+        <f>MAX(C141:C183)</f>
+        <v>125.13</v>
+      </c>
+      <c r="D185" s="25">
+        <v>1987</v>
+      </c>
+      <c r="E185" s="22"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A186" s="22"/>
+      <c r="B186" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="25">
+        <f>AVERAGE(C141:C183)</f>
+        <v>80.320697674418639</v>
+      </c>
+      <c r="D186" s="25"/>
+      <c r="E186" s="22"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A187" s="22">
+        <v>87.55</v>
+      </c>
+      <c r="B187" s="22">
+        <v>48.65</v>
+      </c>
+      <c r="C187" s="22">
+        <v>22.58</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,11 +3745,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291BF79A-D1B7-449B-B603-39F013A07E74}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2331,31 +3755,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>142.75</v>
-      </c>
-      <c r="B2">
-        <v>43.75</v>
-      </c>
-      <c r="C2">
-        <v>566.4</v>
-      </c>
-      <c r="D2">
-        <v>1950</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2366,10 +3781,10 @@
         <v>43.75</v>
       </c>
       <c r="C3">
-        <v>492.29</v>
+        <v>566.4</v>
       </c>
       <c r="D3">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2380,10 +3795,10 @@
         <v>43.75</v>
       </c>
       <c r="C4">
-        <v>506.31</v>
+        <v>492.29</v>
       </c>
       <c r="D4">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2394,10 +3809,10 @@
         <v>43.75</v>
       </c>
       <c r="C5">
-        <v>618.72</v>
+        <v>506.31</v>
       </c>
       <c r="D5">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2408,10 +3823,10 @@
         <v>43.75</v>
       </c>
       <c r="C6">
-        <v>593.1</v>
+        <v>618.72</v>
       </c>
       <c r="D6">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2422,10 +3837,10 @@
         <v>43.75</v>
       </c>
       <c r="C7">
-        <v>749.57</v>
+        <v>593.1</v>
       </c>
       <c r="D7">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2436,10 +3851,10 @@
         <v>43.75</v>
       </c>
       <c r="C8">
-        <v>667.9</v>
+        <v>749.57</v>
       </c>
       <c r="D8">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2450,10 +3865,10 @@
         <v>43.75</v>
       </c>
       <c r="C9">
-        <v>560.92999999999995</v>
+        <v>667.9</v>
       </c>
       <c r="D9">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2464,10 +3879,10 @@
         <v>43.75</v>
       </c>
       <c r="C10">
-        <v>664.69</v>
+        <v>560.92999999999995</v>
       </c>
       <c r="D10">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2478,10 +3893,10 @@
         <v>43.75</v>
       </c>
       <c r="C11">
-        <v>540.38</v>
+        <v>664.69</v>
       </c>
       <c r="D11">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2492,10 +3907,10 @@
         <v>43.75</v>
       </c>
       <c r="C12">
-        <v>640.12</v>
+        <v>540.38</v>
       </c>
       <c r="D12">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2506,10 +3921,10 @@
         <v>43.75</v>
       </c>
       <c r="C13">
-        <v>542.70000000000005</v>
+        <v>640.12</v>
       </c>
       <c r="D13">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2520,10 +3935,10 @@
         <v>43.75</v>
       </c>
       <c r="C14">
-        <v>578.49</v>
+        <v>542.70000000000005</v>
       </c>
       <c r="D14">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2534,10 +3949,10 @@
         <v>43.75</v>
       </c>
       <c r="C15">
-        <v>519.38</v>
+        <v>578.49</v>
       </c>
       <c r="D15">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2548,10 +3963,10 @@
         <v>43.75</v>
       </c>
       <c r="C16">
-        <v>519.62</v>
+        <v>519.38</v>
       </c>
       <c r="D16">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2562,10 +3977,10 @@
         <v>43.75</v>
       </c>
       <c r="C17">
-        <v>739.29</v>
+        <v>519.62</v>
       </c>
       <c r="D17">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2576,10 +3991,10 @@
         <v>43.75</v>
       </c>
       <c r="C18">
-        <v>804.64</v>
+        <v>739.29</v>
       </c>
       <c r="D18">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2590,10 +4005,10 @@
         <v>43.75</v>
       </c>
       <c r="C19">
-        <v>534.19000000000005</v>
+        <v>804.64</v>
       </c>
       <c r="D19">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2604,10 +4019,10 @@
         <v>43.75</v>
       </c>
       <c r="C20">
-        <v>526.38</v>
+        <v>534.19000000000005</v>
       </c>
       <c r="D20">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2618,10 +4033,10 @@
         <v>43.75</v>
       </c>
       <c r="C21">
-        <v>727.78</v>
+        <v>526.38</v>
       </c>
       <c r="D21">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2632,10 +4047,10 @@
         <v>43.75</v>
       </c>
       <c r="C22">
-        <v>751.75</v>
+        <v>727.78</v>
       </c>
       <c r="D22">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2646,10 +4061,10 @@
         <v>43.75</v>
       </c>
       <c r="C23">
-        <v>711.6</v>
+        <v>751.75</v>
       </c>
       <c r="D23">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2660,10 +4075,10 @@
         <v>43.75</v>
       </c>
       <c r="C24">
-        <v>798.72</v>
+        <v>711.6</v>
       </c>
       <c r="D24">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2674,10 +4089,10 @@
         <v>43.75</v>
       </c>
       <c r="C25">
-        <v>747.13</v>
+        <v>798.72</v>
       </c>
       <c r="D25">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2688,10 +4103,10 @@
         <v>43.75</v>
       </c>
       <c r="C26">
-        <v>682.72</v>
+        <v>747.13</v>
       </c>
       <c r="D26">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2702,10 +4117,10 @@
         <v>43.75</v>
       </c>
       <c r="C27">
-        <v>643.47</v>
+        <v>682.72</v>
       </c>
       <c r="D27">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2716,10 +4131,10 @@
         <v>43.75</v>
       </c>
       <c r="C28">
-        <v>733.8</v>
+        <v>643.47</v>
       </c>
       <c r="D28">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2730,10 +4145,10 @@
         <v>43.75</v>
       </c>
       <c r="C29">
-        <v>652.86</v>
+        <v>733.8</v>
       </c>
       <c r="D29">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2744,10 +4159,10 @@
         <v>43.75</v>
       </c>
       <c r="C30">
-        <v>684.13</v>
+        <v>652.86</v>
       </c>
       <c r="D30">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2758,10 +4173,10 @@
         <v>43.75</v>
       </c>
       <c r="C31">
-        <v>654.20000000000005</v>
+        <v>684.13</v>
       </c>
       <c r="D31">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2772,10 +4187,10 @@
         <v>43.75</v>
       </c>
       <c r="C32">
-        <v>698.97</v>
+        <v>654.20000000000005</v>
       </c>
       <c r="D32">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2786,10 +4201,10 @@
         <v>43.75</v>
       </c>
       <c r="C33">
-        <v>651.51</v>
+        <v>698.97</v>
       </c>
       <c r="D33">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2800,10 +4215,10 @@
         <v>43.75</v>
       </c>
       <c r="C34">
-        <v>647.34</v>
+        <v>651.51</v>
       </c>
       <c r="D34">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2814,10 +4229,10 @@
         <v>43.75</v>
       </c>
       <c r="C35">
-        <v>516.13</v>
+        <v>647.34</v>
       </c>
       <c r="D35">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2828,10 +4243,10 @@
         <v>43.75</v>
       </c>
       <c r="C36">
-        <v>539.33000000000004</v>
+        <v>516.13</v>
       </c>
       <c r="D36">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2842,10 +4257,10 @@
         <v>43.75</v>
       </c>
       <c r="C37">
-        <v>587.29</v>
+        <v>539.33000000000004</v>
       </c>
       <c r="D37">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2856,10 +4271,10 @@
         <v>43.75</v>
       </c>
       <c r="C38">
-        <v>657.39</v>
+        <v>587.29</v>
       </c>
       <c r="D38">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2870,10 +4285,10 @@
         <v>43.75</v>
       </c>
       <c r="C39">
-        <v>717.48</v>
+        <v>657.39</v>
       </c>
       <c r="D39">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2884,10 +4299,10 @@
         <v>43.75</v>
       </c>
       <c r="C40">
-        <v>751.05</v>
+        <v>717.48</v>
       </c>
       <c r="D40">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2898,10 +4313,10 @@
         <v>43.75</v>
       </c>
       <c r="C41">
-        <v>552.79999999999995</v>
+        <v>751.05</v>
       </c>
       <c r="D41">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2912,10 +4327,10 @@
         <v>43.75</v>
       </c>
       <c r="C42">
-        <v>435.26</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="D42">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2926,10 +4341,10 @@
         <v>43.75</v>
       </c>
       <c r="C43">
-        <v>605.41999999999996</v>
+        <v>435.26</v>
       </c>
       <c r="D43">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2940,10 +4355,10 @@
         <v>43.75</v>
       </c>
       <c r="C44">
-        <v>576.69000000000005</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="D44">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2954,10 +4369,10 @@
         <v>43.75</v>
       </c>
       <c r="C45">
-        <v>697.74</v>
+        <v>576.69000000000005</v>
       </c>
       <c r="D45">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2968,10 +4383,10 @@
         <v>43.75</v>
       </c>
       <c r="C46">
-        <v>643.9</v>
+        <v>697.74</v>
       </c>
       <c r="D46">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2982,10 +4397,10 @@
         <v>43.75</v>
       </c>
       <c r="C47">
-        <v>650.03</v>
+        <v>643.9</v>
       </c>
       <c r="D47">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2996,10 +4411,10 @@
         <v>43.75</v>
       </c>
       <c r="C48">
-        <v>732.59</v>
+        <v>650.03</v>
       </c>
       <c r="D48">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -3010,10 +4425,10 @@
         <v>43.75</v>
       </c>
       <c r="C49">
-        <v>591.01</v>
+        <v>732.59</v>
       </c>
       <c r="D49">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -3024,10 +4439,10 @@
         <v>43.75</v>
       </c>
       <c r="C50">
-        <v>515.80999999999995</v>
+        <v>591.01</v>
       </c>
       <c r="D50">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -3038,10 +4453,10 @@
         <v>43.75</v>
       </c>
       <c r="C51">
-        <v>594.09</v>
+        <v>515.80999999999995</v>
       </c>
       <c r="D51">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -3052,10 +4467,10 @@
         <v>43.75</v>
       </c>
       <c r="C52">
-        <v>753.22</v>
+        <v>594.09</v>
       </c>
       <c r="D52">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -3066,10 +4481,10 @@
         <v>43.75</v>
       </c>
       <c r="C53">
-        <v>576.19000000000005</v>
+        <v>753.22</v>
       </c>
       <c r="D53">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -3080,10 +4495,10 @@
         <v>43.75</v>
       </c>
       <c r="C54">
-        <v>636.78</v>
+        <v>576.19000000000005</v>
       </c>
       <c r="D54">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -3094,10 +4509,10 @@
         <v>43.75</v>
       </c>
       <c r="C55">
-        <v>498.7</v>
+        <v>636.78</v>
       </c>
       <c r="D55">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -3108,10 +4523,10 @@
         <v>43.75</v>
       </c>
       <c r="C56">
-        <v>727.18</v>
+        <v>498.7</v>
       </c>
       <c r="D56">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -3122,10 +4537,10 @@
         <v>43.75</v>
       </c>
       <c r="C57">
-        <v>665.08</v>
+        <v>727.18</v>
       </c>
       <c r="D57">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -3136,10 +4551,10 @@
         <v>43.75</v>
       </c>
       <c r="C58">
-        <v>712.28</v>
+        <v>665.08</v>
       </c>
       <c r="D58">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -3150,10 +4565,10 @@
         <v>43.75</v>
       </c>
       <c r="C59">
-        <v>602.35</v>
+        <v>712.28</v>
       </c>
       <c r="D59">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -3164,10 +4579,10 @@
         <v>43.75</v>
       </c>
       <c r="C60">
-        <v>557.16</v>
+        <v>602.35</v>
       </c>
       <c r="D60">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -3178,10 +4593,10 @@
         <v>43.75</v>
       </c>
       <c r="C61">
-        <v>694.55</v>
+        <v>557.16</v>
       </c>
       <c r="D61">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -3192,10 +4607,10 @@
         <v>43.75</v>
       </c>
       <c r="C62">
-        <v>692.76</v>
+        <v>694.55</v>
       </c>
       <c r="D62">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -3206,10 +4621,10 @@
         <v>43.75</v>
       </c>
       <c r="C63">
-        <v>636.79</v>
+        <v>692.76</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -3220,10 +4635,10 @@
         <v>43.75</v>
       </c>
       <c r="C64">
-        <v>731.08</v>
+        <v>636.79</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -3234,10 +4649,10 @@
         <v>43.75</v>
       </c>
       <c r="C65">
-        <v>814.57</v>
+        <v>731.08</v>
       </c>
       <c r="D65">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -3248,10 +4663,10 @@
         <v>43.75</v>
       </c>
       <c r="C66">
-        <v>631.73</v>
+        <v>814.57</v>
       </c>
       <c r="D66">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -3262,10 +4677,10 @@
         <v>43.75</v>
       </c>
       <c r="C67">
-        <v>657.1</v>
+        <v>631.73</v>
       </c>
       <c r="D67">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3276,10 +4691,10 @@
         <v>43.75</v>
       </c>
       <c r="C68">
-        <v>823.35</v>
+        <v>657.1</v>
       </c>
       <c r="D68">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3290,10 +4705,10 @@
         <v>43.75</v>
       </c>
       <c r="C69">
-        <v>671.88</v>
+        <v>823.35</v>
       </c>
       <c r="D69">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3304,10 +4719,10 @@
         <v>43.75</v>
       </c>
       <c r="C70">
-        <v>598.38</v>
+        <v>671.88</v>
       </c>
       <c r="D70">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3318,10 +4733,10 @@
         <v>43.75</v>
       </c>
       <c r="C71">
-        <v>633.51</v>
+        <v>598.38</v>
       </c>
       <c r="D71">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3332,10 +4747,10 @@
         <v>43.75</v>
       </c>
       <c r="C72">
-        <v>612.27</v>
+        <v>633.51</v>
       </c>
       <c r="D72">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3346,10 +4761,10 @@
         <v>43.75</v>
       </c>
       <c r="C73">
-        <v>699.87</v>
+        <v>612.27</v>
       </c>
       <c r="D73">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3360,10 +4775,10 @@
         <v>43.75</v>
       </c>
       <c r="C74">
-        <v>680.26</v>
+        <v>699.87</v>
       </c>
       <c r="D74">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3374,10 +4789,10 @@
         <v>43.75</v>
       </c>
       <c r="C75">
-        <v>510.68</v>
+        <v>680.26</v>
       </c>
       <c r="D75">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3388,68 +4803,782 @@
         <v>43.75</v>
       </c>
       <c r="C76">
+        <v>510.68</v>
+      </c>
+      <c r="D76">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>142.75</v>
+      </c>
+      <c r="B77">
+        <v>43.75</v>
+      </c>
+      <c r="C77">
         <v>470.25</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>2024</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="8">
-        <f>MIN(C2:C76)</f>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24">
+        <f>MIN(C3:C77)</f>
         <v>435.26</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="25">
         <v>1990</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="9">
-        <f>MAX(C2:C76)</f>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24">
+        <f>MAX(C3:C77)</f>
         <v>823.35</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="25">
         <v>2016</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="10">
-        <f>AVERAGE(C2:C76)</f>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24">
+        <f>AVERAGE(C3:C77)</f>
         <v>637.37413333333336</v>
       </c>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80">
-        <v>142.75</v>
-      </c>
-      <c r="B80">
-        <v>43.75</v>
-      </c>
-      <c r="C80">
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>142.75</v>
+      </c>
+      <c r="B81">
+        <v>43.75</v>
+      </c>
+      <c r="C81">
         <v>361.86</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>2025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>143.125</v>
+      </c>
+      <c r="B86">
+        <v>43.5</v>
+      </c>
+      <c r="C86">
+        <v>327.22000000000003</v>
+      </c>
+      <c r="D86">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>143.125</v>
+      </c>
+      <c r="B87">
+        <v>43.5</v>
+      </c>
+      <c r="C87">
+        <v>302.22000000000003</v>
+      </c>
+      <c r="D87">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>143.125</v>
+      </c>
+      <c r="B88">
+        <v>43.5</v>
+      </c>
+      <c r="C88">
+        <v>290.77999999999997</v>
+      </c>
+      <c r="D88">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>143.125</v>
+      </c>
+      <c r="B89">
+        <v>43.5</v>
+      </c>
+      <c r="C89">
+        <v>213.57</v>
+      </c>
+      <c r="D89">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>143.125</v>
+      </c>
+      <c r="B90">
+        <v>43.5</v>
+      </c>
+      <c r="C90">
+        <v>216.28</v>
+      </c>
+      <c r="D90">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>143.125</v>
+      </c>
+      <c r="B91">
+        <v>43.5</v>
+      </c>
+      <c r="C91">
+        <v>283.61</v>
+      </c>
+      <c r="D91">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>143.125</v>
+      </c>
+      <c r="B92">
+        <v>43.5</v>
+      </c>
+      <c r="C92">
+        <v>295.13</v>
+      </c>
+      <c r="D92">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>143.125</v>
+      </c>
+      <c r="B93">
+        <v>43.5</v>
+      </c>
+      <c r="C93">
+        <v>269.27</v>
+      </c>
+      <c r="D93">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>143.125</v>
+      </c>
+      <c r="B94">
+        <v>43.5</v>
+      </c>
+      <c r="C94">
+        <v>276.18</v>
+      </c>
+      <c r="D94">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>143.125</v>
+      </c>
+      <c r="B95">
+        <v>43.5</v>
+      </c>
+      <c r="C95">
+        <v>279.14999999999998</v>
+      </c>
+      <c r="D95">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>143.125</v>
+      </c>
+      <c r="B96">
+        <v>43.5</v>
+      </c>
+      <c r="C96">
+        <v>241.53</v>
+      </c>
+      <c r="D96">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>143.125</v>
+      </c>
+      <c r="B97">
+        <v>43.5</v>
+      </c>
+      <c r="C97">
+        <v>231.02</v>
+      </c>
+      <c r="D97">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>143.125</v>
+      </c>
+      <c r="B98">
+        <v>43.5</v>
+      </c>
+      <c r="C98">
+        <v>225.49</v>
+      </c>
+      <c r="D98">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>143.125</v>
+      </c>
+      <c r="B99">
+        <v>43.5</v>
+      </c>
+      <c r="C99">
+        <v>329.8</v>
+      </c>
+      <c r="D99">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>143.125</v>
+      </c>
+      <c r="B100">
+        <v>43.5</v>
+      </c>
+      <c r="C100">
+        <v>339.69</v>
+      </c>
+      <c r="D100">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>143.125</v>
+      </c>
+      <c r="B101">
+        <v>43.5</v>
+      </c>
+      <c r="C101">
+        <v>306.18</v>
+      </c>
+      <c r="D101">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>143.125</v>
+      </c>
+      <c r="B102">
+        <v>43.5</v>
+      </c>
+      <c r="C102">
+        <v>365.77</v>
+      </c>
+      <c r="D102">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>143.125</v>
+      </c>
+      <c r="B103">
+        <v>43.5</v>
+      </c>
+      <c r="C103">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="D103">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>143.125</v>
+      </c>
+      <c r="B104">
+        <v>43.5</v>
+      </c>
+      <c r="C104">
+        <v>272.47000000000003</v>
+      </c>
+      <c r="D104">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>143.125</v>
+      </c>
+      <c r="B105">
+        <v>43.5</v>
+      </c>
+      <c r="C105">
+        <v>263.12</v>
+      </c>
+      <c r="D105">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>143.125</v>
+      </c>
+      <c r="B106">
+        <v>43.5</v>
+      </c>
+      <c r="C106">
+        <v>453.75</v>
+      </c>
+      <c r="D106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>143.125</v>
+      </c>
+      <c r="B107">
+        <v>43.5</v>
+      </c>
+      <c r="C107">
+        <v>269.37</v>
+      </c>
+      <c r="D107">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>143.125</v>
+      </c>
+      <c r="B108">
+        <v>43.5</v>
+      </c>
+      <c r="C108">
+        <v>340.47</v>
+      </c>
+      <c r="D108">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>143.125</v>
+      </c>
+      <c r="B109">
+        <v>43.5</v>
+      </c>
+      <c r="C109">
+        <v>257</v>
+      </c>
+      <c r="D109">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>143.125</v>
+      </c>
+      <c r="B110">
+        <v>43.5</v>
+      </c>
+      <c r="C110">
+        <v>416.6</v>
+      </c>
+      <c r="D110">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>143.125</v>
+      </c>
+      <c r="B111">
+        <v>43.5</v>
+      </c>
+      <c r="C111">
+        <v>373.05</v>
+      </c>
+      <c r="D111">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>143.125</v>
+      </c>
+      <c r="B112">
+        <v>43.5</v>
+      </c>
+      <c r="C112">
+        <v>380.89</v>
+      </c>
+      <c r="D112">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>143.125</v>
+      </c>
+      <c r="B113">
+        <v>43.5</v>
+      </c>
+      <c r="C113">
+        <v>285.86</v>
+      </c>
+      <c r="D113">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>143.125</v>
+      </c>
+      <c r="B114">
+        <v>43.5</v>
+      </c>
+      <c r="C114">
+        <v>209.52</v>
+      </c>
+      <c r="D114">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>143.125</v>
+      </c>
+      <c r="B115">
+        <v>43.5</v>
+      </c>
+      <c r="C115">
+        <v>360.41</v>
+      </c>
+      <c r="D115">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>143.125</v>
+      </c>
+      <c r="B116">
+        <v>43.5</v>
+      </c>
+      <c r="C116">
+        <v>309.26</v>
+      </c>
+      <c r="D116">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>143.125</v>
+      </c>
+      <c r="B117">
+        <v>43.5</v>
+      </c>
+      <c r="C117">
+        <v>268.14</v>
+      </c>
+      <c r="D117">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>143.125</v>
+      </c>
+      <c r="B118">
+        <v>43.5</v>
+      </c>
+      <c r="C118">
+        <v>376.21</v>
+      </c>
+      <c r="D118">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>143.125</v>
+      </c>
+      <c r="B119">
+        <v>43.5</v>
+      </c>
+      <c r="C119">
+        <v>308.45</v>
+      </c>
+      <c r="D119">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>143.125</v>
+      </c>
+      <c r="B120">
+        <v>43.5</v>
+      </c>
+      <c r="C120">
+        <v>245.44</v>
+      </c>
+      <c r="D120">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>143.125</v>
+      </c>
+      <c r="B121">
+        <v>43.5</v>
+      </c>
+      <c r="C121">
+        <v>398.99</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>143.125</v>
+      </c>
+      <c r="B122">
+        <v>43.5</v>
+      </c>
+      <c r="C122">
+        <v>386.72</v>
+      </c>
+      <c r="D122">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>143.125</v>
+      </c>
+      <c r="B123">
+        <v>43.5</v>
+      </c>
+      <c r="C123">
+        <v>322.23</v>
+      </c>
+      <c r="D123">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>143.125</v>
+      </c>
+      <c r="B124">
+        <v>43.5</v>
+      </c>
+      <c r="C124">
+        <v>301.14999999999998</v>
+      </c>
+      <c r="D124">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>143.125</v>
+      </c>
+      <c r="B125">
+        <v>43.5</v>
+      </c>
+      <c r="C125">
+        <v>231.59</v>
+      </c>
+      <c r="D125">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>143.125</v>
+      </c>
+      <c r="B126">
+        <v>43.5</v>
+      </c>
+      <c r="C126">
+        <v>328.72</v>
+      </c>
+      <c r="D126">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>143.125</v>
+      </c>
+      <c r="B127">
+        <v>43.5</v>
+      </c>
+      <c r="C127">
+        <v>349.67</v>
+      </c>
+      <c r="D127">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>143.125</v>
+      </c>
+      <c r="B128">
+        <v>43.5</v>
+      </c>
+      <c r="C128">
+        <v>305.81</v>
+      </c>
+      <c r="D128">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>143.125</v>
+      </c>
+      <c r="B129">
+        <v>43.5</v>
+      </c>
+      <c r="C129">
+        <v>252.51</v>
+      </c>
+      <c r="D129">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>143.125</v>
+      </c>
+      <c r="B130">
+        <v>43.5</v>
+      </c>
+      <c r="C130">
+        <v>232.17</v>
+      </c>
+      <c r="D130">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B131" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="24">
+        <f>MIN(C86:C130)</f>
+        <v>209.52</v>
+      </c>
+      <c r="D131" s="25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B132" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="24">
+        <f>MAX(C86:C130)</f>
+        <v>453.75</v>
+      </c>
+      <c r="D132" s="25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B133" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="24">
+        <f>AVERAGE(C86:C130)</f>
+        <v>301.5791111111111</v>
+      </c>
+      <c r="D133" s="25"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>143.125</v>
+      </c>
+      <c r="B134">
+        <v>43.5</v>
+      </c>
+      <c r="C134">
+        <v>251.37</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0E8822-CED4-482F-8597-BE0B42F20353}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -3471,95 +5600,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="82.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="82.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="13">
         <v>220</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="9">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="82.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="10">
         <v>518</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="9">
         <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="82.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="82.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/气象/WheatA小麦芽县级逐年降雪量(卫星反演).xlsx
+++ b/气象/WheatA小麦芽县级逐年降雪量(卫星反演).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5208E5-CF42-4A9D-905D-E495F40AED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC77C6B-9D95-4111-A457-292C08CCE2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3DDE2517-75A5-4668-B7C2-29638D1098B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="禾木" sheetId="1" r:id="rId1"/>
-    <sheet name="旭岳大雪山" sheetId="2" r:id="rId2"/>
-    <sheet name="对比表" sheetId="3" r:id="rId3"/>
+    <sheet name="额尔古纳" sheetId="4" r:id="rId1"/>
+    <sheet name="禾木" sheetId="1" r:id="rId2"/>
+    <sheet name="旭岳大雪山" sheetId="2" r:id="rId3"/>
+    <sheet name="对比表" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>经度(lon)</t>
   </si>
@@ -825,6 +826,18 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,18 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,10 +1176,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB2C33E-1625-4290-BF01-C7249F7823CF}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>120.25</v>
+      </c>
+      <c r="B3">
+        <v>50.25</v>
+      </c>
+      <c r="C3">
+        <v>92.75</v>
+      </c>
+      <c r="D3">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>120.25</v>
+      </c>
+      <c r="B4">
+        <v>50.25</v>
+      </c>
+      <c r="C4">
+        <v>56.43</v>
+      </c>
+      <c r="D4">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>120.25</v>
+      </c>
+      <c r="B5">
+        <v>50.25</v>
+      </c>
+      <c r="C5">
+        <v>61.12</v>
+      </c>
+      <c r="D5">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>120.25</v>
+      </c>
+      <c r="B6">
+        <v>50.25</v>
+      </c>
+      <c r="C6">
+        <v>49.89</v>
+      </c>
+      <c r="D6">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>120.25</v>
+      </c>
+      <c r="B7">
+        <v>50.25</v>
+      </c>
+      <c r="C7">
+        <v>86.25</v>
+      </c>
+      <c r="D7">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>120.25</v>
+      </c>
+      <c r="B8">
+        <v>50.25</v>
+      </c>
+      <c r="C8">
+        <v>86.09</v>
+      </c>
+      <c r="D8">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>120.25</v>
+      </c>
+      <c r="B9">
+        <v>50.25</v>
+      </c>
+      <c r="C9">
+        <v>86.72</v>
+      </c>
+      <c r="D9">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>120.25</v>
+      </c>
+      <c r="B10">
+        <v>50.25</v>
+      </c>
+      <c r="C10">
+        <v>91.73</v>
+      </c>
+      <c r="D10">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>120.25</v>
+      </c>
+      <c r="B11">
+        <v>50.25</v>
+      </c>
+      <c r="C11">
+        <v>141.96</v>
+      </c>
+      <c r="D11">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>120.25</v>
+      </c>
+      <c r="B12">
+        <v>50.25</v>
+      </c>
+      <c r="C12">
+        <v>112.6</v>
+      </c>
+      <c r="D12">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>120.25</v>
+      </c>
+      <c r="B13">
+        <v>50.25</v>
+      </c>
+      <c r="C13">
+        <v>90.59</v>
+      </c>
+      <c r="D13">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>120.25</v>
+      </c>
+      <c r="B14">
+        <v>50.25</v>
+      </c>
+      <c r="C14">
+        <v>68.95</v>
+      </c>
+      <c r="D14">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>120.25</v>
+      </c>
+      <c r="B15">
+        <v>50.25</v>
+      </c>
+      <c r="C15">
+        <v>101.18</v>
+      </c>
+      <c r="D15">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>120.25</v>
+      </c>
+      <c r="B16">
+        <v>50.25</v>
+      </c>
+      <c r="C16">
+        <v>105.3</v>
+      </c>
+      <c r="D16">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>120.25</v>
+      </c>
+      <c r="B17">
+        <v>50.25</v>
+      </c>
+      <c r="C17">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>120.25</v>
+      </c>
+      <c r="B18">
+        <v>50.25</v>
+      </c>
+      <c r="C18">
+        <v>89.65</v>
+      </c>
+      <c r="D18">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>120.25</v>
+      </c>
+      <c r="B19">
+        <v>50.25</v>
+      </c>
+      <c r="C19">
+        <v>62.28</v>
+      </c>
+      <c r="D19">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>120.25</v>
+      </c>
+      <c r="B20">
+        <v>50.25</v>
+      </c>
+      <c r="C20">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>120.25</v>
+      </c>
+      <c r="B21">
+        <v>50.25</v>
+      </c>
+      <c r="C21">
+        <v>108.96</v>
+      </c>
+      <c r="D21">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>120.25</v>
+      </c>
+      <c r="B22">
+        <v>50.25</v>
+      </c>
+      <c r="C22">
+        <v>108.91</v>
+      </c>
+      <c r="D22">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>120.25</v>
+      </c>
+      <c r="B23">
+        <v>50.25</v>
+      </c>
+      <c r="C23">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="D23">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>120.25</v>
+      </c>
+      <c r="B24">
+        <v>50.25</v>
+      </c>
+      <c r="C24">
+        <v>152.41</v>
+      </c>
+      <c r="D24">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>120.25</v>
+      </c>
+      <c r="B25">
+        <v>50.25</v>
+      </c>
+      <c r="C25">
+        <v>114.95</v>
+      </c>
+      <c r="D25">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>120.25</v>
+      </c>
+      <c r="B26">
+        <v>50.25</v>
+      </c>
+      <c r="C26">
+        <v>108.11</v>
+      </c>
+      <c r="D26">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>120.25</v>
+      </c>
+      <c r="B27">
+        <v>50.25</v>
+      </c>
+      <c r="C27">
+        <v>110.73</v>
+      </c>
+      <c r="D27">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>120.25</v>
+      </c>
+      <c r="B28">
+        <v>50.25</v>
+      </c>
+      <c r="C28">
+        <v>84.24</v>
+      </c>
+      <c r="D28">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>120.25</v>
+      </c>
+      <c r="B29">
+        <v>50.25</v>
+      </c>
+      <c r="C29">
+        <v>92.43</v>
+      </c>
+      <c r="D29">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>120.25</v>
+      </c>
+      <c r="B30">
+        <v>50.25</v>
+      </c>
+      <c r="C30">
+        <v>102.52</v>
+      </c>
+      <c r="D30">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>120.25</v>
+      </c>
+      <c r="B31">
+        <v>50.25</v>
+      </c>
+      <c r="C31">
+        <v>86.14</v>
+      </c>
+      <c r="D31">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>120.25</v>
+      </c>
+      <c r="B32">
+        <v>50.25</v>
+      </c>
+      <c r="C32">
+        <v>111.24</v>
+      </c>
+      <c r="D32">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>120.25</v>
+      </c>
+      <c r="B33">
+        <v>50.25</v>
+      </c>
+      <c r="C33">
+        <v>84.83</v>
+      </c>
+      <c r="D33">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>120.25</v>
+      </c>
+      <c r="B34">
+        <v>50.25</v>
+      </c>
+      <c r="C34">
+        <v>98.57</v>
+      </c>
+      <c r="D34">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>120.25</v>
+      </c>
+      <c r="B35">
+        <v>50.25</v>
+      </c>
+      <c r="C35">
+        <v>101.33</v>
+      </c>
+      <c r="D35">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>120.25</v>
+      </c>
+      <c r="B36">
+        <v>50.25</v>
+      </c>
+      <c r="C36">
+        <v>96.05</v>
+      </c>
+      <c r="D36">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>120.25</v>
+      </c>
+      <c r="B37">
+        <v>50.25</v>
+      </c>
+      <c r="C37">
+        <v>81.06</v>
+      </c>
+      <c r="D37">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>120.25</v>
+      </c>
+      <c r="B38">
+        <v>50.25</v>
+      </c>
+      <c r="C38">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="D38">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>120.25</v>
+      </c>
+      <c r="B39">
+        <v>50.25</v>
+      </c>
+      <c r="C39">
+        <v>70.33</v>
+      </c>
+      <c r="D39">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>120.25</v>
+      </c>
+      <c r="B40">
+        <v>50.25</v>
+      </c>
+      <c r="C40">
+        <v>79.459999999999994</v>
+      </c>
+      <c r="D40">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>120.25</v>
+      </c>
+      <c r="B41">
+        <v>50.25</v>
+      </c>
+      <c r="C41">
+        <v>94.42</v>
+      </c>
+      <c r="D41">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>120.25</v>
+      </c>
+      <c r="B42">
+        <v>50.25</v>
+      </c>
+      <c r="C42">
+        <v>94.71</v>
+      </c>
+      <c r="D42">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>120.25</v>
+      </c>
+      <c r="B43">
+        <v>50.25</v>
+      </c>
+      <c r="C43">
+        <v>70.72</v>
+      </c>
+      <c r="D43">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>120.25</v>
+      </c>
+      <c r="B44">
+        <v>50.25</v>
+      </c>
+      <c r="C44">
+        <v>70.47</v>
+      </c>
+      <c r="D44">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>120.25</v>
+      </c>
+      <c r="B45">
+        <v>50.25</v>
+      </c>
+      <c r="C45">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="D45">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>120.25</v>
+      </c>
+      <c r="B46">
+        <v>50.25</v>
+      </c>
+      <c r="C46">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="D46">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>120.25</v>
+      </c>
+      <c r="B47">
+        <v>50.25</v>
+      </c>
+      <c r="C47">
+        <v>92.38</v>
+      </c>
+      <c r="D47">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>120.25</v>
+      </c>
+      <c r="B48">
+        <v>50.25</v>
+      </c>
+      <c r="C48">
+        <v>95.44</v>
+      </c>
+      <c r="D48">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>120.25</v>
+      </c>
+      <c r="B49">
+        <v>50.25</v>
+      </c>
+      <c r="C49">
+        <v>116.35</v>
+      </c>
+      <c r="D49">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>120.25</v>
+      </c>
+      <c r="B50">
+        <v>50.25</v>
+      </c>
+      <c r="C50">
+        <v>85.31</v>
+      </c>
+      <c r="D50">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>120.25</v>
+      </c>
+      <c r="B51">
+        <v>50.25</v>
+      </c>
+      <c r="C51">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D51">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>120.25</v>
+      </c>
+      <c r="B52">
+        <v>50.25</v>
+      </c>
+      <c r="C52">
+        <v>98.55</v>
+      </c>
+      <c r="D52">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>120.25</v>
+      </c>
+      <c r="B53">
+        <v>50.25</v>
+      </c>
+      <c r="C53">
+        <v>80.63</v>
+      </c>
+      <c r="D53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>120.25</v>
+      </c>
+      <c r="B54">
+        <v>50.25</v>
+      </c>
+      <c r="C54">
+        <v>76.87</v>
+      </c>
+      <c r="D54">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>120.25</v>
+      </c>
+      <c r="B55">
+        <v>50.25</v>
+      </c>
+      <c r="C55">
+        <v>82.24</v>
+      </c>
+      <c r="D55">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>120.25</v>
+      </c>
+      <c r="B56">
+        <v>50.25</v>
+      </c>
+      <c r="C56">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="D56">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>120.25</v>
+      </c>
+      <c r="B57">
+        <v>50.25</v>
+      </c>
+      <c r="C57">
+        <v>118.87</v>
+      </c>
+      <c r="D57">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>120.25</v>
+      </c>
+      <c r="B58">
+        <v>50.25</v>
+      </c>
+      <c r="C58">
+        <v>78.98</v>
+      </c>
+      <c r="D58">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>120.25</v>
+      </c>
+      <c r="B59">
+        <v>50.25</v>
+      </c>
+      <c r="C59">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="D59">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>120.25</v>
+      </c>
+      <c r="B60">
+        <v>50.25</v>
+      </c>
+      <c r="C60">
+        <v>82.13</v>
+      </c>
+      <c r="D60">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>120.25</v>
+      </c>
+      <c r="B61">
+        <v>50.25</v>
+      </c>
+      <c r="C61">
+        <v>74.41</v>
+      </c>
+      <c r="D61">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>120.25</v>
+      </c>
+      <c r="B62">
+        <v>50.25</v>
+      </c>
+      <c r="C62">
+        <v>92.17</v>
+      </c>
+      <c r="D62">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>120.25</v>
+      </c>
+      <c r="B63">
+        <v>50.25</v>
+      </c>
+      <c r="C63">
+        <v>92.88</v>
+      </c>
+      <c r="D63">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>120.25</v>
+      </c>
+      <c r="B64">
+        <v>50.25</v>
+      </c>
+      <c r="C64">
+        <v>61.89</v>
+      </c>
+      <c r="D64">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>120.25</v>
+      </c>
+      <c r="B65">
+        <v>50.25</v>
+      </c>
+      <c r="C65">
+        <v>74.16</v>
+      </c>
+      <c r="D65">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>120.25</v>
+      </c>
+      <c r="B66">
+        <v>50.25</v>
+      </c>
+      <c r="C66">
+        <v>80.62</v>
+      </c>
+      <c r="D66">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>120.25</v>
+      </c>
+      <c r="B67">
+        <v>50.25</v>
+      </c>
+      <c r="C67">
+        <v>49.09</v>
+      </c>
+      <c r="D67">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>120.25</v>
+      </c>
+      <c r="B68">
+        <v>50.25</v>
+      </c>
+      <c r="C68">
+        <v>55.56</v>
+      </c>
+      <c r="D68">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>120.25</v>
+      </c>
+      <c r="B69">
+        <v>50.25</v>
+      </c>
+      <c r="C69">
+        <v>81.64</v>
+      </c>
+      <c r="D69">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>120.25</v>
+      </c>
+      <c r="B70">
+        <v>50.25</v>
+      </c>
+      <c r="C70">
+        <v>59.38</v>
+      </c>
+      <c r="D70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>120.25</v>
+      </c>
+      <c r="B71">
+        <v>50.25</v>
+      </c>
+      <c r="C71">
+        <v>54.2</v>
+      </c>
+      <c r="D71">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>120.25</v>
+      </c>
+      <c r="B72">
+        <v>50.25</v>
+      </c>
+      <c r="C72">
+        <v>42.7</v>
+      </c>
+      <c r="D72">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>120.25</v>
+      </c>
+      <c r="B73">
+        <v>50.25</v>
+      </c>
+      <c r="C73">
+        <v>54.85</v>
+      </c>
+      <c r="D73">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>120.25</v>
+      </c>
+      <c r="B74">
+        <v>50.25</v>
+      </c>
+      <c r="C74">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="D74">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>120.25</v>
+      </c>
+      <c r="B75">
+        <v>50.25</v>
+      </c>
+      <c r="C75">
+        <v>94.2</v>
+      </c>
+      <c r="D75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>120.25</v>
+      </c>
+      <c r="B76">
+        <v>50.25</v>
+      </c>
+      <c r="C76">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="D76">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>120.25</v>
+      </c>
+      <c r="B77">
+        <v>50.25</v>
+      </c>
+      <c r="C77">
+        <v>129.18</v>
+      </c>
+      <c r="D77">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="18">
+        <f>MIN(C3:C77)</f>
+        <v>42.7</v>
+      </c>
+      <c r="D78" s="19">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="18">
+        <f>MAX(C3:C77)</f>
+        <v>152.41</v>
+      </c>
+      <c r="D79" s="19">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="18">
+        <f>AVERAGE(C3:C77)</f>
+        <v>85.939333333333337</v>
+      </c>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>120.25</v>
+      </c>
+      <c r="B81">
+        <v>50.25</v>
+      </c>
+      <c r="C81">
+        <v>63.83</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93538E0D-B98B-4DC7-A837-35C0301702A3}">
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2255,11 +3392,11 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24">
+      <c r="B78" s="20"/>
+      <c r="C78" s="18">
         <f>MIN(C3:C77)</f>
         <v>272.79000000000002</v>
       </c>
@@ -2268,11 +3405,11 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24">
+      <c r="B79" s="20"/>
+      <c r="C79" s="18">
         <f>MAX(C3:C77)</f>
         <v>753.1</v>
       </c>
@@ -2281,11 +3418,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24">
+      <c r="B80" s="20"/>
+      <c r="C80" s="18">
         <f>AVERAGE(C3:C77)</f>
         <v>518.43706666666662</v>
       </c>
@@ -2958,38 +4095,38 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B131" s="25" t="s">
+      <c r="B131" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="24">
+      <c r="C131" s="18">
         <f>MIN(C86:C130)</f>
         <v>127.24</v>
       </c>
-      <c r="D131" s="25">
+      <c r="D131" s="19">
         <v>1986</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="18">
         <f>MAX(C86:C130)</f>
         <v>361.92</v>
       </c>
-      <c r="D132" s="25">
+      <c r="D132" s="19">
         <v>2023</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="18">
         <f>AVERAGE(C86:C130)</f>
         <v>212.65044444444445</v>
       </c>
-      <c r="D133" s="25"/>
+      <c r="D133" s="19"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
@@ -3006,730 +4143,730 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="25" t="s">
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="25" t="s">
+      <c r="B140" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="25" t="s">
+      <c r="D140" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="22"/>
+      <c r="E140" s="17"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141" s="22">
+      <c r="A141" s="17">
         <v>87.55</v>
       </c>
-      <c r="B141" s="22">
+      <c r="B141" s="17">
         <v>48.65</v>
       </c>
-      <c r="C141" s="22">
+      <c r="C141" s="17">
         <v>65.03</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="17">
         <v>1982</v>
       </c>
-      <c r="E141" s="22"/>
+      <c r="E141" s="17"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142" s="22">
+      <c r="A142" s="17">
         <v>87.55</v>
       </c>
-      <c r="B142" s="22">
+      <c r="B142" s="17">
         <v>48.65</v>
       </c>
-      <c r="C142" s="22">
+      <c r="C142" s="17">
         <v>60.34</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D142" s="17">
         <v>1983</v>
       </c>
-      <c r="E142" s="22"/>
+      <c r="E142" s="17"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143" s="22">
+      <c r="A143" s="17">
         <v>87.55</v>
       </c>
-      <c r="B143" s="22">
+      <c r="B143" s="17">
         <v>48.65</v>
       </c>
-      <c r="C143" s="22">
+      <c r="C143" s="17">
         <v>100.56</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="17">
         <v>1984</v>
       </c>
-      <c r="E143" s="22"/>
+      <c r="E143" s="17"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144" s="22">
+      <c r="A144" s="17">
         <v>87.55</v>
       </c>
-      <c r="B144" s="22">
+      <c r="B144" s="17">
         <v>48.65</v>
       </c>
-      <c r="C144" s="22">
+      <c r="C144" s="17">
         <v>83.24</v>
       </c>
-      <c r="D144" s="22">
+      <c r="D144" s="17">
         <v>1985</v>
       </c>
-      <c r="E144" s="22"/>
+      <c r="E144" s="17"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145" s="22">
+      <c r="A145" s="17">
         <v>87.55</v>
       </c>
-      <c r="B145" s="22">
+      <c r="B145" s="17">
         <v>48.65</v>
       </c>
-      <c r="C145" s="22">
+      <c r="C145" s="17">
         <v>79.12</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="17">
         <v>1986</v>
       </c>
-      <c r="E145" s="22"/>
+      <c r="E145" s="17"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" s="22">
+      <c r="A146" s="17">
         <v>87.55</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="17">
         <v>48.65</v>
       </c>
-      <c r="C146" s="22">
+      <c r="C146" s="17">
         <v>125.13</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="17">
         <v>1987</v>
       </c>
-      <c r="E146" s="22"/>
+      <c r="E146" s="17"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" s="22">
+      <c r="A147" s="17">
         <v>87.55</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="17">
         <v>48.65</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="17">
         <v>82.44</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="17">
         <v>1988</v>
       </c>
-      <c r="E147" s="22"/>
+      <c r="E147" s="17"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" s="22">
+      <c r="A148" s="17">
         <v>87.55</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="17">
         <v>48.65</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="17">
         <v>77.150000000000006</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="17">
         <v>1989</v>
       </c>
-      <c r="E148" s="22"/>
+      <c r="E148" s="17"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" s="22">
+      <c r="A149" s="17">
         <v>87.55</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="17">
         <v>48.65</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="17">
         <v>96.27</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="17">
         <v>1990</v>
       </c>
-      <c r="E149" s="22"/>
+      <c r="E149" s="17"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="22">
+      <c r="A150" s="17">
         <v>87.55</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="17">
         <v>48.65</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="17">
         <v>89.74</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="17">
         <v>1991</v>
       </c>
-      <c r="E150" s="22"/>
+      <c r="E150" s="17"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" s="22">
+      <c r="A151" s="17">
         <v>87.55</v>
       </c>
-      <c r="B151" s="22">
+      <c r="B151" s="17">
         <v>48.65</v>
       </c>
-      <c r="C151" s="22">
+      <c r="C151" s="17">
         <v>76.81</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="17">
         <v>1992</v>
       </c>
-      <c r="E151" s="22"/>
+      <c r="E151" s="17"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="22">
+      <c r="A152" s="17">
         <v>87.55</v>
       </c>
-      <c r="B152" s="22">
+      <c r="B152" s="17">
         <v>48.65</v>
       </c>
-      <c r="C152" s="22">
+      <c r="C152" s="17">
         <v>78.48</v>
       </c>
-      <c r="D152" s="22">
+      <c r="D152" s="17">
         <v>1993</v>
       </c>
-      <c r="E152" s="22"/>
+      <c r="E152" s="17"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="22">
+      <c r="A153" s="17">
         <v>87.55</v>
       </c>
-      <c r="B153" s="22">
+      <c r="B153" s="17">
         <v>48.65</v>
       </c>
-      <c r="C153" s="22">
+      <c r="C153" s="17">
         <v>84.19</v>
       </c>
-      <c r="D153" s="22">
+      <c r="D153" s="17">
         <v>1994</v>
       </c>
-      <c r="E153" s="22"/>
+      <c r="E153" s="17"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="22">
+      <c r="A154" s="17">
         <v>87.55</v>
       </c>
-      <c r="B154" s="22">
+      <c r="B154" s="17">
         <v>48.65</v>
       </c>
-      <c r="C154" s="22">
+      <c r="C154" s="17">
         <v>54.67</v>
       </c>
-      <c r="D154" s="22">
+      <c r="D154" s="17">
         <v>1995</v>
       </c>
-      <c r="E154" s="22"/>
+      <c r="E154" s="17"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="22">
+      <c r="A155" s="17">
         <v>87.55</v>
       </c>
-      <c r="B155" s="22">
+      <c r="B155" s="17">
         <v>48.65</v>
       </c>
-      <c r="C155" s="22">
+      <c r="C155" s="17">
         <v>94.96</v>
       </c>
-      <c r="D155" s="22">
+      <c r="D155" s="17">
         <v>1996</v>
       </c>
-      <c r="E155" s="22"/>
+      <c r="E155" s="17"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="22">
+      <c r="A156" s="17">
         <v>87.55</v>
       </c>
-      <c r="B156" s="22">
+      <c r="B156" s="17">
         <v>48.65</v>
       </c>
-      <c r="C156" s="22">
+      <c r="C156" s="17">
         <v>72.8</v>
       </c>
-      <c r="D156" s="22">
+      <c r="D156" s="17">
         <v>1997</v>
       </c>
-      <c r="E156" s="22"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="22">
+      <c r="A157" s="17">
         <v>87.55</v>
       </c>
-      <c r="B157" s="22">
+      <c r="B157" s="17">
         <v>48.65</v>
       </c>
-      <c r="C157" s="22">
+      <c r="C157" s="17">
         <v>83.19</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="17">
         <v>1998</v>
       </c>
-      <c r="E157" s="22"/>
+      <c r="E157" s="17"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="22">
+      <c r="A158" s="17">
         <v>87.55</v>
       </c>
-      <c r="B158" s="22">
+      <c r="B158" s="17">
         <v>48.65</v>
       </c>
-      <c r="C158" s="22">
+      <c r="C158" s="17">
         <v>53.25</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="17">
         <v>1999</v>
       </c>
-      <c r="E158" s="22"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="22">
+      <c r="A159" s="17">
         <v>87.55</v>
       </c>
-      <c r="B159" s="22">
+      <c r="B159" s="17">
         <v>48.65</v>
       </c>
-      <c r="C159" s="22">
+      <c r="C159" s="17">
         <v>90.5</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="17">
         <v>2000</v>
       </c>
-      <c r="E159" s="22"/>
+      <c r="E159" s="17"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" s="22">
+      <c r="A160" s="17">
         <v>87.55</v>
       </c>
-      <c r="B160" s="22">
+      <c r="B160" s="17">
         <v>48.65</v>
       </c>
-      <c r="C160" s="22">
+      <c r="C160" s="17">
         <v>89.24</v>
       </c>
-      <c r="D160" s="22">
+      <c r="D160" s="17">
         <v>2001</v>
       </c>
-      <c r="E160" s="22"/>
+      <c r="E160" s="17"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A161" s="22">
+      <c r="A161" s="17">
         <v>87.55</v>
       </c>
-      <c r="B161" s="22">
+      <c r="B161" s="17">
         <v>48.65</v>
       </c>
-      <c r="C161" s="22">
+      <c r="C161" s="17">
         <v>74.650000000000006</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="17">
         <v>2002</v>
       </c>
-      <c r="E161" s="22"/>
+      <c r="E161" s="17"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A162" s="22">
+      <c r="A162" s="17">
         <v>87.55</v>
       </c>
-      <c r="B162" s="22">
+      <c r="B162" s="17">
         <v>48.65</v>
       </c>
-      <c r="C162" s="22">
+      <c r="C162" s="17">
         <v>82.95</v>
       </c>
-      <c r="D162" s="22">
+      <c r="D162" s="17">
         <v>2003</v>
       </c>
-      <c r="E162" s="22"/>
+      <c r="E162" s="17"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A163" s="22">
+      <c r="A163" s="17">
         <v>87.55</v>
       </c>
-      <c r="B163" s="22">
+      <c r="B163" s="17">
         <v>48.65</v>
       </c>
-      <c r="C163" s="22">
+      <c r="C163" s="17">
         <v>73.05</v>
       </c>
-      <c r="D163" s="22">
+      <c r="D163" s="17">
         <v>2004</v>
       </c>
-      <c r="E163" s="22"/>
+      <c r="E163" s="17"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A164" s="22">
+      <c r="A164" s="17">
         <v>87.55</v>
       </c>
-      <c r="B164" s="22">
+      <c r="B164" s="17">
         <v>48.65</v>
       </c>
-      <c r="C164" s="22">
+      <c r="C164" s="17">
         <v>59.22</v>
       </c>
-      <c r="D164" s="22">
+      <c r="D164" s="17">
         <v>2005</v>
       </c>
-      <c r="E164" s="22"/>
+      <c r="E164" s="17"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165" s="22">
+      <c r="A165" s="17">
         <v>87.55</v>
       </c>
-      <c r="B165" s="22">
+      <c r="B165" s="17">
         <v>48.65</v>
       </c>
-      <c r="C165" s="22">
+      <c r="C165" s="17">
         <v>101.16</v>
       </c>
-      <c r="D165" s="22">
+      <c r="D165" s="17">
         <v>2006</v>
       </c>
-      <c r="E165" s="22"/>
+      <c r="E165" s="17"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166" s="22">
+      <c r="A166" s="17">
         <v>87.55</v>
       </c>
-      <c r="B166" s="22">
+      <c r="B166" s="17">
         <v>48.65</v>
       </c>
-      <c r="C166" s="22">
+      <c r="C166" s="17">
         <v>79.33</v>
       </c>
-      <c r="D166" s="22">
+      <c r="D166" s="17">
         <v>2007</v>
       </c>
-      <c r="E166" s="22"/>
+      <c r="E166" s="17"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167" s="22">
+      <c r="A167" s="17">
         <v>87.55</v>
       </c>
-      <c r="B167" s="22">
+      <c r="B167" s="17">
         <v>48.65</v>
       </c>
-      <c r="C167" s="22">
+      <c r="C167" s="17">
         <v>58.36</v>
       </c>
-      <c r="D167" s="22">
+      <c r="D167" s="17">
         <v>2008</v>
       </c>
-      <c r="E167" s="22"/>
+      <c r="E167" s="17"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168" s="22">
+      <c r="A168" s="17">
         <v>87.55</v>
       </c>
-      <c r="B168" s="22">
+      <c r="B168" s="17">
         <v>48.65</v>
       </c>
-      <c r="C168" s="22">
+      <c r="C168" s="17">
         <v>75.84</v>
       </c>
-      <c r="D168" s="22">
+      <c r="D168" s="17">
         <v>2009</v>
       </c>
-      <c r="E168" s="22"/>
+      <c r="E168" s="17"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169" s="22">
+      <c r="A169" s="17">
         <v>87.55</v>
       </c>
-      <c r="B169" s="22">
+      <c r="B169" s="17">
         <v>48.65</v>
       </c>
-      <c r="C169" s="22">
+      <c r="C169" s="17">
         <v>98.94</v>
       </c>
-      <c r="D169" s="22">
+      <c r="D169" s="17">
         <v>2010</v>
       </c>
-      <c r="E169" s="22"/>
+      <c r="E169" s="17"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170" s="22">
+      <c r="A170" s="17">
         <v>87.55</v>
       </c>
-      <c r="B170" s="22">
+      <c r="B170" s="17">
         <v>48.65</v>
       </c>
-      <c r="C170" s="22">
+      <c r="C170" s="17">
         <v>73.73</v>
       </c>
-      <c r="D170" s="22">
+      <c r="D170" s="17">
         <v>2011</v>
       </c>
-      <c r="E170" s="22"/>
+      <c r="E170" s="17"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171" s="22">
+      <c r="A171" s="17">
         <v>87.55</v>
       </c>
-      <c r="B171" s="22">
+      <c r="B171" s="17">
         <v>48.65</v>
       </c>
-      <c r="C171" s="22">
+      <c r="C171" s="17">
         <v>78.98</v>
       </c>
-      <c r="D171" s="22">
+      <c r="D171" s="17">
         <v>2012</v>
       </c>
-      <c r="E171" s="22"/>
+      <c r="E171" s="17"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172" s="22">
+      <c r="A172" s="17">
         <v>87.55</v>
       </c>
-      <c r="B172" s="22">
+      <c r="B172" s="17">
         <v>48.65</v>
       </c>
-      <c r="C172" s="22">
+      <c r="C172" s="17">
         <v>64.930000000000007</v>
       </c>
-      <c r="D172" s="22">
+      <c r="D172" s="17">
         <v>2013</v>
       </c>
-      <c r="E172" s="22"/>
+      <c r="E172" s="17"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173" s="22">
+      <c r="A173" s="17">
         <v>87.55</v>
       </c>
-      <c r="B173" s="22">
+      <c r="B173" s="17">
         <v>48.65</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="17">
         <v>78.77</v>
       </c>
-      <c r="D173" s="22">
+      <c r="D173" s="17">
         <v>2014</v>
       </c>
-      <c r="E173" s="22"/>
+      <c r="E173" s="17"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174" s="22">
+      <c r="A174" s="17">
         <v>87.55</v>
       </c>
-      <c r="B174" s="22">
+      <c r="B174" s="17">
         <v>48.65</v>
       </c>
-      <c r="C174" s="22">
+      <c r="C174" s="17">
         <v>99.63</v>
       </c>
-      <c r="D174" s="22">
+      <c r="D174" s="17">
         <v>2015</v>
       </c>
-      <c r="E174" s="22"/>
+      <c r="E174" s="17"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175" s="22">
+      <c r="A175" s="17">
         <v>87.55</v>
       </c>
-      <c r="B175" s="22">
+      <c r="B175" s="17">
         <v>48.65</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="17">
         <v>79.239999999999995</v>
       </c>
-      <c r="D175" s="22">
+      <c r="D175" s="17">
         <v>2016</v>
       </c>
-      <c r="E175" s="22"/>
+      <c r="E175" s="17"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A176" s="22">
+      <c r="A176" s="17">
         <v>87.55</v>
       </c>
-      <c r="B176" s="22">
+      <c r="B176" s="17">
         <v>48.65</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="17">
         <v>74.62</v>
       </c>
-      <c r="D176" s="22">
+      <c r="D176" s="17">
         <v>2017</v>
       </c>
-      <c r="E176" s="22"/>
+      <c r="E176" s="17"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177" s="22">
+      <c r="A177" s="17">
         <v>87.55</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="17">
         <v>48.65</v>
       </c>
-      <c r="C177" s="22">
+      <c r="C177" s="17">
         <v>87.07</v>
       </c>
-      <c r="D177" s="22">
+      <c r="D177" s="17">
         <v>2018</v>
       </c>
-      <c r="E177" s="22"/>
+      <c r="E177" s="17"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A178" s="22">
+      <c r="A178" s="17">
         <v>87.55</v>
       </c>
-      <c r="B178" s="22">
+      <c r="B178" s="17">
         <v>48.65</v>
       </c>
-      <c r="C178" s="22">
+      <c r="C178" s="17">
         <v>73.8</v>
       </c>
-      <c r="D178" s="22">
+      <c r="D178" s="17">
         <v>2019</v>
       </c>
-      <c r="E178" s="22"/>
+      <c r="E178" s="17"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A179" s="22">
+      <c r="A179" s="17">
         <v>87.55</v>
       </c>
-      <c r="B179" s="22">
+      <c r="B179" s="17">
         <v>48.65</v>
       </c>
-      <c r="C179" s="22">
+      <c r="C179" s="17">
         <v>54.98</v>
       </c>
-      <c r="D179" s="22">
+      <c r="D179" s="17">
         <v>2020</v>
       </c>
-      <c r="E179" s="22"/>
+      <c r="E179" s="17"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180" s="22">
+      <c r="A180" s="17">
         <v>87.55</v>
       </c>
-      <c r="B180" s="22">
+      <c r="B180" s="17">
         <v>48.65</v>
       </c>
-      <c r="C180" s="22">
+      <c r="C180" s="17">
         <v>93.44</v>
       </c>
-      <c r="D180" s="22">
+      <c r="D180" s="17">
         <v>2021</v>
       </c>
-      <c r="E180" s="22"/>
+      <c r="E180" s="17"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A181" s="22">
+      <c r="A181" s="17">
         <v>87.55</v>
       </c>
-      <c r="B181" s="22">
+      <c r="B181" s="17">
         <v>48.65</v>
       </c>
-      <c r="C181" s="22">
+      <c r="C181" s="17">
         <v>62.36</v>
       </c>
-      <c r="D181" s="22">
+      <c r="D181" s="17">
         <v>2022</v>
       </c>
-      <c r="E181" s="22"/>
+      <c r="E181" s="17"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A182" s="22">
+      <c r="A182" s="17">
         <v>87.55</v>
       </c>
-      <c r="B182" s="22">
+      <c r="B182" s="17">
         <v>48.65</v>
       </c>
-      <c r="C182" s="22">
+      <c r="C182" s="17">
         <v>103.01</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="17">
         <v>2023</v>
       </c>
-      <c r="E182" s="22"/>
+      <c r="E182" s="17"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A183" s="22">
+      <c r="A183" s="17">
         <v>87.55</v>
       </c>
-      <c r="B183" s="22">
+      <c r="B183" s="17">
         <v>48.65</v>
       </c>
-      <c r="C183" s="22">
+      <c r="C183" s="17">
         <v>88.62</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="17">
         <v>2024</v>
       </c>
-      <c r="E183" s="22"/>
+      <c r="E183" s="17"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A184" s="22"/>
-      <c r="B184" s="25" t="s">
+      <c r="A184" s="17"/>
+      <c r="B184" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="25">
+      <c r="C184" s="19">
         <f>MIN(C141:C183)</f>
         <v>53.25</v>
       </c>
-      <c r="D184" s="25">
+      <c r="D184" s="19">
         <v>1999</v>
       </c>
-      <c r="E184" s="22"/>
+      <c r="E184" s="17"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A185" s="22"/>
-      <c r="B185" s="25" t="s">
+      <c r="A185" s="17"/>
+      <c r="B185" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C185" s="25">
+      <c r="C185" s="19">
         <f>MAX(C141:C183)</f>
         <v>125.13</v>
       </c>
-      <c r="D185" s="25">
+      <c r="D185" s="19">
         <v>1987</v>
       </c>
-      <c r="E185" s="22"/>
+      <c r="E185" s="17"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A186" s="22"/>
-      <c r="B186" s="25" t="s">
+      <c r="A186" s="17"/>
+      <c r="B186" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C186" s="25">
+      <c r="C186" s="19">
         <f>AVERAGE(C141:C183)</f>
         <v>80.320697674418639</v>
       </c>
-      <c r="D186" s="25"/>
-      <c r="E186" s="22"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="17"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A187" s="22">
+      <c r="A187" s="17">
         <v>87.55</v>
       </c>
-      <c r="B187" s="22">
+      <c r="B187" s="17">
         <v>48.65</v>
       </c>
-      <c r="C187" s="22">
+      <c r="C187" s="17">
         <v>22.58</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E187" s="22"/>
+      <c r="E187" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3743,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291BF79A-D1B7-449B-B603-39F013A07E74}">
   <dimension ref="A1:E134"/>
   <sheetViews>
@@ -4824,41 +5961,41 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24">
+      <c r="B78" s="20"/>
+      <c r="C78" s="18">
         <f>MIN(C3:C77)</f>
         <v>435.26</v>
       </c>
-      <c r="D78" s="25">
+      <c r="D78" s="19">
         <v>1990</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24">
+      <c r="B79" s="20"/>
+      <c r="C79" s="18">
         <f>MAX(C3:C77)</f>
         <v>823.35</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="19">
         <v>2016</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24">
+      <c r="B80" s="20"/>
+      <c r="C80" s="18">
         <f>AVERAGE(C3:C77)</f>
         <v>637.37413333333336</v>
       </c>
-      <c r="D80" s="25"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
@@ -5527,38 +6664,38 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B131" s="25" t="s">
+      <c r="B131" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="24">
+      <c r="C131" s="18">
         <f>MIN(C86:C130)</f>
         <v>209.52</v>
       </c>
-      <c r="D131" s="25">
+      <c r="D131" s="19">
         <v>2008</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="18">
         <f>MAX(C86:C130)</f>
         <v>453.75</v>
       </c>
-      <c r="D132" s="25">
+      <c r="D132" s="19">
         <v>2000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="18">
         <f>AVERAGE(C86:C130)</f>
         <v>301.5791111111111</v>
       </c>
-      <c r="D133" s="25"/>
+      <c r="D133" s="19"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134">
@@ -5585,7 +6722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0E8822-CED4-482F-8597-BE0B42F20353}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5600,11 +6737,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -5684,11 +6821,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
